--- a/dokumen penting/28_Naufal_Perhitungan Kebutuhan SDM Berdasarkan BK.xlsx
+++ b/dokumen penting/28_Naufal_Perhitungan Kebutuhan SDM Berdasarkan BK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\siabeka\dokumen penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A281A85E-0123-4FFC-A42F-546823B76FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEEAD5A-B42C-4402-96C7-1653C1629696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="679" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="9931" tabRatio="679" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="1" r:id="rId1"/>
@@ -1296,129 +1296,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1466,8 +1466,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="695197" y="203150"/>
-          <a:ext cx="7229528" cy="3797350"/>
+          <a:off x="718560" y="193805"/>
+          <a:ext cx="7463160" cy="3610444"/>
           <a:chOff x="638175" y="209550"/>
           <a:chExt cx="6657975" cy="3800475"/>
         </a:xfrm>
@@ -4051,7 +4051,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4066,26 +4066,26 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -4122,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>1</v>
       </c>
@@ -4217,33 +4217,33 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+    <row r="5" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="106" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="19">
@@ -4457,14 +4457,14 @@
       <c r="B31" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109" t="s">
+      <c r="D31" s="111"/>
+      <c r="E31" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="109"/>
+      <c r="F31" s="111"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="103" t="s">
@@ -4511,49 +4511,49 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:4" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -4567,7 +4567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>1</v>
       </c>
@@ -4581,131 +4581,131 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
-      <c r="B13" s="114" t="str">
+      <c r="B13" s="116" t="str">
         <f>'Langkah 1'!D12</f>
         <v>Petugas Filing</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="107" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="119"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="111" t="s">
+      <c r="B24" s="117"/>
+      <c r="C24" s="113" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="B25" s="115"/>
-      <c r="C25" s="112"/>
+    <row r="25" spans="1:4" ht="31.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="117"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="115"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="115"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="116"/>
-      <c r="C28" s="113"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="42"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,43 +4740,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A5:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="5" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
@@ -4789,15 +4789,15 @@
       <c r="D8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="121"/>
+      <c r="F8" s="123"/>
       <c r="G8" s="46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="50.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>1</v>
       </c>
@@ -4805,7 +4805,7 @@
         <f>'Langkah 3'!B13</f>
         <v>Petugas Filing</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="124" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="47" t="str">
@@ -4822,10 +4822,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="122"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="47" t="str">
         <f>'Langkah 3'!D14</f>
         <v xml:space="preserve">Merakit lembar rekam medis rawat inap baru </v>
@@ -4840,10 +4840,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="122"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="47" t="str">
         <f>'Langkah 3'!D15</f>
         <v>Mendistribusikan berkas rekam medis rawat inap baru ke poliklinik dan Instalasi Gawat Darurat</v>
@@ -4858,10 +4858,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="122"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="47" t="str">
         <f>'Langkah 3'!D16</f>
         <v>Menerima dan mengecek berkas rekam medis rawat inap dari ruang rawat inap</v>
@@ -4876,10 +4876,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="122"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="47" t="str">
         <f>'Langkah 3'!D17</f>
         <v>Mengecek keterlambatan pengiriman berkas rekam medis rawat inap</v>
@@ -4894,10 +4894,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="122"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="47" t="str">
         <f>'Langkah 3'!D18</f>
         <v>Menyusun lembar rekam medis dan meretriksi lembar yang tidak dipakai</v>
@@ -4912,10 +4912,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="122"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="47" t="str">
         <f>'Langkah 3'!D19</f>
         <v>Mencatat ketidaklengkapan pengisian rekam medis pada kartu kendali</v>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="46.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="55"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="H16" s="58"/>
     </row>
-    <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="40.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="55"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="H17" s="58"/>
     </row>
-    <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="49.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="55"/>
@@ -5007,10 +5007,10 @@
       </c>
       <c r="H19" s="58"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="125" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="47" t="str">
@@ -5027,10 +5027,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="124"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="47" t="str">
         <f>'Langkah 3'!D25</f>
         <v>Mengikuti pertemuan triwulanan penyusunan profil kesehatan</v>
@@ -5048,7 +5048,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="124"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="64"/>
       <c r="E22" s="51"/>
       <c r="F22" s="65"/>
@@ -5057,7 +5057,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="64"/>
       <c r="E23" s="51"/>
       <c r="F23" s="67"/>
@@ -5066,7 +5066,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="68"/>
       <c r="B24" s="45"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="64"/>
       <c r="E24" s="69"/>
       <c r="F24" s="70"/>
@@ -5089,45 +5089,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:9" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
@@ -5140,10 +5140,10 @@
       <c r="D8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="127"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="72" t="s">
         <v>38</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>1</v>
       </c>
@@ -5162,7 +5162,7 @@
         <f>'Langkah 4'!B9</f>
         <v>Petugas Filing</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="124" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="33" t="str">
@@ -5190,10 +5190,10 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="122"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="33" t="str">
         <f>'Langkah 4'!D10</f>
         <v xml:space="preserve">Merakit lembar rekam medis rawat inap baru </v>
@@ -5219,10 +5219,10 @@
         <v>74760</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="122"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="33" t="str">
         <f>'Langkah 4'!D11</f>
         <v>Mendistribusikan berkas rekam medis rawat inap baru ke poliklinik dan Instalasi Gawat Darurat</v>
@@ -5248,10 +5248,10 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="122"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="33" t="str">
         <f>'Langkah 4'!D12</f>
         <v>Menerima dan mengecek berkas rekam medis rawat inap dari ruang rawat inap</v>
@@ -5277,10 +5277,10 @@
         <v>74760</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="128"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="33" t="str">
         <f>'Langkah 4'!D13</f>
         <v>Mengecek keterlambatan pengiriman berkas rekam medis rawat inap</v>
@@ -5306,10 +5306,10 @@
         <v>74760</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="128"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="33" t="str">
         <f>'Langkah 4'!D14</f>
         <v>Menyusun lembar rekam medis dan meretriksi lembar yang tidak dipakai</v>
@@ -5335,7 +5335,7 @@
         <v>74760</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="55"/>
@@ -5363,7 +5363,7 @@
         <v>37380</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="55"/>
@@ -5391,7 +5391,7 @@
         <v>74760</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="55"/>
@@ -5419,10 +5419,10 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="129"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="33" t="str">
         <f>'Langkah 4'!D18</f>
         <v>Mengentry sensus harian ke computer</v>
@@ -5447,10 +5447,10 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="130"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="33" t="str">
         <f>'Langkah 4'!D19</f>
         <v>Melakukan surat menyurat visum et repertum, jasaraharja, asuransi</v>
@@ -5474,7 +5474,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="44"/>
       <c r="C20" s="61" t="s">
@@ -5504,7 +5504,7 @@
         <v>830.66666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="44"/>
       <c r="C21" s="63"/>
@@ -5586,37 +5586,37 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
@@ -5629,15 +5629,15 @@
       <c r="D8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="121"/>
+      <c r="F8" s="123"/>
       <c r="G8" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>1</v>
       </c>
@@ -5645,7 +5645,7 @@
         <f>'Langkah 5'!B9</f>
         <v>Petugas Filing</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="135" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="87" t="str">
@@ -5668,10 +5668,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="112"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="87" t="str">
         <f>'Langkah 4'!D21</f>
         <v>Mengikuti pertemuan triwulanan penyusunan profil kesehatan</v>
@@ -5695,7 +5695,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="112"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="42"/>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
@@ -5704,7 +5704,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="112"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="42"/>
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
@@ -5713,35 +5713,35 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="112"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="82"/>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="91">
         <f>SUM(G9:G10)</f>
         <v>2.0866773675762441E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="92">
         <f>1/(1-G14)</f>
         <v>1.021311475409836</v>
@@ -5769,40 +5769,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A5:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="64" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:7" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-    </row>
-    <row r="8" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+    </row>
+    <row r="8" spans="1:7" ht="81.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
@@ -5825,15 +5825,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="133">
+    <row r="9" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="136">
         <v>1</v>
       </c>
-      <c r="B9" s="144" t="str">
+      <c r="B9" s="147" t="str">
         <f>'Langkah 6'!B9</f>
         <v>Petugas Filing</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="119" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="33" t="str">
@@ -5852,10 +5852,10 @@
         <v>1.337613697164259E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="118"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="137"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="33" t="str">
         <f>'Langkah 4'!D10</f>
         <v xml:space="preserve">Merakit lembar rekam medis rawat inap baru </v>
@@ -5872,10 +5872,10 @@
         <v>0.20064205457463885</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="118"/>
+    <row r="11" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="137"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="33" t="str">
         <f>'Langkah 4'!D11</f>
         <v>Mendistribusikan berkas rekam medis rawat inap baru ke poliklinik dan Instalasi Gawat Darurat</v>
@@ -5892,10 +5892,10 @@
         <v>3.2102728731942215E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="118"/>
+    <row r="12" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="33" t="str">
         <f>'Langkah 4'!D12</f>
         <v>Menerima dan mengecek berkas rekam medis rawat inap dari ruang rawat inap</v>
@@ -5912,10 +5912,10 @@
         <v>0.12145532370251472</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="118"/>
+    <row r="13" spans="1:7" ht="36.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="137"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="33" t="str">
         <f>'Langkah 4'!D13</f>
         <v>Mengecek keterlambatan pengiriman berkas rekam medis rawat inap</v>
@@ -5933,9 +5933,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="118"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="33" t="str">
         <f>'Langkah 4'!D14</f>
         <v>Menyusun lembar rekam medis dan meretriksi lembar yang tidak dipakai</v>
@@ -5952,10 +5952,10 @@
         <v>0.12145532370251472</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="118"/>
+    <row r="15" spans="1:7" ht="49.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="137"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="33" t="str">
         <f>'Langkah 4'!D15</f>
         <v>Mencatat ketidaklengkapan pengisian rekam medis pada kartu kendali</v>
@@ -5972,10 +5972,10 @@
         <v>3.2102728731942215E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="118"/>
+    <row r="16" spans="1:7" ht="77.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="137"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="33" t="str">
         <f>'Langkah 4'!D16</f>
         <v>Mencatat pasien masuk rumah sakit rawat inap pada buku register rawat inap, cara kepulangan dan jangkauan wilayah</v>
@@ -5992,10 +5992,10 @@
         <v>0.12145532370251472</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="118"/>
+    <row r="17" spans="1:7" ht="50.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="137"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="33" t="str">
         <f>'Langkah 4'!D17</f>
         <v xml:space="preserve">Mengambil laporan sensus harian ke ruang rawat inap dan menggabungkannya setiap jam kerja </v>
@@ -6013,9 +6013,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="118"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="33" t="str">
         <f>'Langkah 4'!D18</f>
         <v>Mengentry sensus harian ke computer</v>
@@ -6033,9 +6033,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="119"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="33" t="str">
         <f>'Langkah 4'!D19</f>
         <v>Melakukan surat menyurat visum et repertum, jasaraharja, asuransi</v>
@@ -6053,44 +6053,44 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="139" t="s">
+      <c r="D20" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="143"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="99">
         <f>SUM(G9:G19)</f>
         <v>1.6398341359015518</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="100">
         <f>'Langkah 6'!G15</f>
         <v>1.021311475409836</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="136" t="s">
+      <c r="A22" s="138"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="101">
         <f>G20*G21</f>
         <v>1.6747814207650273</v>
